--- a/initializer阶段测试结果.xlsx
+++ b/initializer阶段测试结果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunow/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunow/Desktop/test/concuFix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFE417A-32E3-4041-A3A8-553CDA662C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80C938-EFB4-8942-997C-CBA85D2841BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="26560" windowHeight="12900" xr2:uid="{875F12AE-E9C5-184E-8784-3C2CDC2F920B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>airline</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,28 @@
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完全上锁所有的地方，对CAS思考有些问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未考虑到原子性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前的实现不够完整，需要确保所有访问内部状态的方法都得到适当的同步保护。</t>
+  </si>
+  <si>
+    <t>方向正确，但需要确保使用统一的锁来保护相关的复合操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略了复合操作的原子性需求</t>
   </si>
 </sst>
 </file>
@@ -532,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C9C340-97E3-6043-B0C6-6E5C4F5BCF48}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -542,7 +564,7 @@
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1">
@@ -659,6 +681,12 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1">
       <c r="B12" t="s">
@@ -667,6 +695,15 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1">
       <c r="B13" t="s">
@@ -675,6 +712,12 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1">
       <c r="B14" t="s">
@@ -683,6 +726,15 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1">
       <c r="B15" t="s">
@@ -691,6 +743,12 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1">
       <c r="B16" t="s">
@@ -699,45 +757,90 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="30" customHeight="1">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="30" customHeight="1">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1">
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="30" customHeight="1">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1">
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="30" customHeight="1">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1">
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" customHeight="1">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1">
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/initializer阶段测试结果.xlsx
+++ b/initializer阶段测试结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunow/Desktop/test/concuFix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunow23\Desktop\AgentProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80C938-EFB4-8942-997C-CBA85D2841BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D21A8A-75E3-43EF-8777-3183386FBB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="26560" windowHeight="12900" xr2:uid="{875F12AE-E9C5-184E-8784-3C2CDC2F920B}"/>
+    <workbookView xWindow="5290" yWindow="1840" windowWidth="12550" windowHeight="7270" xr2:uid="{875F12AE-E9C5-184E-8784-3C2CDC2F920B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>airline</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,129 +75,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>格式有误，可转换为json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略正确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出有误，空策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出有误，可转换为json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未考虑到this.waitList.list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的核心是可见性，不是原子性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS 方法忽略了代码需要跨多个语句的复合原子性这一基本问题，而不仅仅是原子性单个操作。</t>
+  </si>
+  <si>
+    <t>仅将int改为AtomicInteger而保持原有的两次独立自增操作，无法完全消除竞争条件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>linkedlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
   <si>
     <t>mergesort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>未完全上锁所有的地方，对CAS思考有些问题</t>
   </si>
   <si>
     <t>pingpong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出有误，可转换为json</t>
   </si>
   <si>
     <t>reorder1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出有误，空策略</t>
+  </si>
+  <si>
+    <t>未考虑到原子性</t>
   </si>
   <si>
     <t>store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stringbuffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较高</t>
+  </si>
+  <si>
+    <t>当前的实现不够完整，需要确保所有访问内部状态的方法都得到适当的同步保护。</t>
   </si>
   <si>
     <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>twoStage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向正确，但需要确保使用统一的锁来保护相关的复合操作</t>
   </si>
   <si>
     <t>wrongLock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略了复合操作的原子性需求</t>
   </si>
   <si>
     <t>wrongLock2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式有误，可转换为json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略正确性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略质量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出有误，空策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出有误，可转换为json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>较低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未考虑到this.waitList.list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完全上锁所有的地方，对CAS思考有些问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未考虑到原子性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>较高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前的实现不够完整，需要确保所有访问内部状态的方法都得到适当的同步保护。</t>
-  </si>
-  <si>
-    <t>方向正确，但需要确保使用统一的锁来保护相关的复合操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略了复合操作的原子性需求</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -554,297 +574,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C9C340-97E3-6043-B0C6-6E5C4F5BCF48}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" customWidth="1"/>
+    <col min="3" max="3" width="31.84375" customWidth="1"/>
+    <col min="4" max="4" width="21.4609375" customWidth="1"/>
+    <col min="5" max="5" width="21.69140625" customWidth="1"/>
+    <col min="6" max="6" width="32.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1">
+    <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="30" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>